--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
   <si>
     <t>Jan</t>
   </si>
@@ -65,9 +65,6 @@
     <t>MALI</t>
   </si>
   <si>
-    <t>PAUL</t>
-  </si>
-  <si>
     <t>DAVID GOLD</t>
   </si>
   <si>
@@ -153,6 +150,27 @@
   </si>
   <si>
     <t>AMANDA RAFKIN</t>
+  </si>
+  <si>
+    <t>PAUL VONG</t>
+  </si>
+  <si>
+    <t>MOLLIE COWGER</t>
+  </si>
+  <si>
+    <t>RACHEL FABI</t>
+  </si>
+  <si>
+    <t>LUCIANO SPANTO</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>NEVILLE FOGARTY</t>
+  </si>
+  <si>
+    <t>NATE CARDIN</t>
   </si>
 </sst>
 </file>
@@ -485,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,19 +564,19 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
         <v>12</v>
@@ -575,10 +593,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -590,7 +608,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -604,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -615,11 +633,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="1"/>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -630,7 +648,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -638,13 +658,13 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -659,7 +679,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -667,13 +687,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -684,11 +704,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -700,7 +720,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -711,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -725,7 +745,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -736,23 +756,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -763,16 +785,18 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -780,19 +804,27 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -802,7 +834,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -825,10 +857,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P12">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -840,23 +869,19 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -866,11 +891,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -881,7 +906,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -892,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -907,13 +932,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -921,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -930,19 +955,19 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -950,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -964,10 +989,10 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -978,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -990,13 +1015,13 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -1005,7 +1030,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1018,7 +1043,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -1026,13 +1054,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1044,7 +1072,10 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -1055,21 +1086,23 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -1077,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1091,7 +1124,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -1099,30 +1132,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="O23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1135,7 +1172,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="O24" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -1143,10 +1183,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1156,14 +1196,14 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
         <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -1174,7 +1214,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1183,7 +1223,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="O26" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1234,9 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1213,25 +1257,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -1239,7 +1285,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1252,10 +1298,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -1263,25 +1309,27 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -1289,7 +1337,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1302,10 +1350,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
         <v>34</v>
-      </c>
-      <c r="O31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -1313,11 +1361,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1328,6 +1376,34 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
+      <c r="O32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
   <si>
     <t>Jan</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>NATE CARDIN</t>
+  </si>
+  <si>
+    <t>MATT MORRISON</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1009,7 +1012,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1405,6 +1410,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>Jan</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>MATT MORRISON</t>
+  </si>
+  <si>
+    <t>MARTINA</t>
+  </si>
+  <si>
+    <t>ANGIE KIM</t>
+  </si>
+  <si>
+    <t>MEGAN RILEY</t>
   </si>
 </sst>
 </file>
@@ -506,20 +515,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="14" max="14" width="6.1796875" customWidth="1"/>
-    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="14" max="14" width="1.7265625" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" customWidth="1"/>
+    <col min="17" max="17" width="1.6328125" customWidth="1"/>
+    <col min="19" max="19" width="3.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -582,13 +593,19 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -611,13 +628,19 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="P3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -640,13 +663,19 @@
       </c>
       <c r="M4" s="1"/>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,13 +696,19 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -696,13 +731,19 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -723,20 +764,28 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="P7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -748,13 +797,19 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,13 +832,19 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -808,20 +869,28 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
@@ -837,13 +906,19 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -860,10 +935,19 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -885,8 +969,20 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -909,13 +1005,19 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="P14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -938,13 +1040,19 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -966,14 +1074,18 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="O16" t="s">
-        <v>21</v>
-      </c>
       <c r="P16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+        <f>SUM(P2:P15)</f>
+        <v>30</v>
+      </c>
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -982,7 +1094,9 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -991,14 +1105,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1022,14 +1136,14 @@
       <c r="M18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1047,14 +1161,14 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="O19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1076,14 +1190,11 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="O20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1103,14 +1214,14 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="O21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1128,11 +1239,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="O22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1152,11 +1266,14 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1176,14 +1293,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1207,11 +1324,14 @@
       <c r="M25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1231,11 +1351,14 @@
       <c r="M26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1253,11 +1376,12 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="O27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="S27">
+        <f>SUM(S2:S26)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1281,11 +1405,8 @@
       <c r="M28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1305,11 +1426,8 @@
       <c r="M29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1333,11 +1451,8 @@
       <c r="M30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1357,11 +1472,8 @@
       <c r="M31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1381,39 +1493,6 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="O32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.35">
-      <c r="O38" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Jan</t>
   </si>
@@ -518,7 +518,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,7 +872,7 @@
         <v>52</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
@@ -1076,7 +1076,7 @@
       <c r="M16" s="1"/>
       <c r="P16">
         <f>SUM(P2:P15)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
         <v>40</v>
@@ -1093,15 +1093,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Jan</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>MEGAN RILEY</t>
+  </si>
+  <si>
+    <t>MARCUS TODD</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -858,7 +861,9 @@
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1244,10 +1249,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1271,10 +1276,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="R23" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1298,10 +1303,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="R24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1329,7 +1334,7 @@
         <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1356,10 +1361,10 @@
         <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1380,9 +1385,11 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
+      <c r="R27" t="s">
+        <v>14</v>
+      </c>
       <c r="S27">
-        <f>SUM(S2:S26)</f>
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1408,6 +1415,10 @@
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="S28">
+        <f>SUM(S2:S27)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
   <si>
     <t>Jan</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>MARCUS TODD</t>
+  </si>
+  <si>
+    <t>MAY &amp; KEVIN</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,7 +864,7 @@
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -874,10 +877,10 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
@@ -911,10 +914,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -940,10 +943,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12" t="s">
         <v>17</v>
@@ -975,10 +978,10 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" t="s">
         <v>45</v>
@@ -1010,10 +1013,10 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" t="s">
         <v>49</v>
@@ -1029,7 +1032,9 @@
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
@@ -1045,10 +1050,10 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -1079,12 +1084,14 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
+      <c r="O16" t="s">
+        <v>46</v>
+      </c>
       <c r="P16">
-        <f>SUM(P2:P15)</f>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1114,8 +1121,12 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="P17">
+        <f>SUM(P2:P16)</f>
+        <v>33</v>
+      </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1146,10 +1157,10 @@
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -1171,10 +1182,10 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="R19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1200,7 +1211,10 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1224,10 +1238,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="R21" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1249,10 +1260,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="R22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1276,10 +1287,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1303,10 +1314,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="R24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1334,10 +1345,10 @@
         <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1361,7 +1372,7 @@
         <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -1386,10 +1397,10 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="R27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1416,9 +1427,11 @@
       <c r="M28" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="R28" t="s">
+        <v>14</v>
+      </c>
       <c r="S28">
-        <f>SUM(S2:S27)</f>
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1441,6 +1454,10 @@
       <c r="M29" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="S29">
+        <f>SUM(S2:S28)</f>
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Jan</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>MAY &amp; KEVIN</t>
+  </si>
+  <si>
+    <t>SONALEE R</t>
+  </si>
+  <si>
+    <t>STEPHANIE FOX</t>
+  </si>
+  <si>
+    <t>JESS GOLDSTEIN</t>
+  </si>
+  <si>
+    <t>MAX KURZMAN</t>
   </si>
 </sst>
 </file>
@@ -236,11 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +537,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -656,7 +669,9 @@
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -962,7 +977,9 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1052,9 @@
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
         <v>27</v>
@@ -1085,10 +1104,10 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="O16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
         <v>53</v>
@@ -1111,7 +1130,9 @@
       <c r="E17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1121,12 +1142,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
       <c r="P17">
-        <f>SUM(P2:P16)</f>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1142,7 +1165,9 @@
       <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1156,8 +1181,12 @@
       <c r="M18" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="P18">
+        <f>SUM(P2:P17)</f>
+        <v>35</v>
+      </c>
       <c r="R18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1175,17 +1204,19 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1211,17 +1242,19 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="R20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
@@ -1238,7 +1271,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1260,10 +1296,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1287,10 +1323,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="R23" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1314,10 +1350,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1345,10 +1381,10 @@
         <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1372,10 +1408,10 @@
         <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1386,7 +1422,9 @@
         <v>26</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1397,7 +1435,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="R27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -1428,10 +1466,10 @@
         <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1443,7 +1481,9 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1454,9 +1494,11 @@
       <c r="M29" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="R29" t="s">
+        <v>14</v>
+      </c>
       <c r="S29">
-        <f>SUM(S2:S28)</f>
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1482,6 +1524,10 @@
       <c r="L30" s="1"/>
       <c r="M30" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="S30">
+        <f>SUM(S2:S29)</f>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>Jan</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>MAX KURZMAN</t>
+  </si>
+  <si>
+    <t>CHARLOTTE DEMING</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -244,16 +253,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +643,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,7 +655,7 @@
     <col min="19" max="19" width="3.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -591,24 +697,24 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
@@ -628,24 +734,24 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
       <c r="O3" t="s">
         <v>41</v>
       </c>
@@ -663,26 +769,26 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="8"/>
       <c r="O4" t="s">
         <v>51</v>
       </c>
@@ -700,22 +806,22 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
       <c r="O5" t="s">
         <v>16</v>
       </c>
@@ -733,26 +839,26 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -768,27 +874,27 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
         <v>38</v>
@@ -801,27 +907,27 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="O8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
         <v>19</v>
@@ -834,29 +940,29 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R9" t="s">
         <v>34</v>
@@ -869,30 +975,30 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -908,31 +1014,31 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -945,23 +1051,23 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R12" t="s">
         <v>17</v>
@@ -974,31 +1080,31 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
         <v>45</v>
@@ -1011,29 +1117,29 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
         <v>49</v>
@@ -1046,33 +1152,33 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="3" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s">
         <v>22</v>
@@ -1085,26 +1191,26 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -1120,33 +1226,33 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
         <v>58</v>
@@ -1159,31 +1265,33 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3" t="s">
+      <c r="E18" s="7"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3" t="s">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
       <c r="P18">
-        <f>SUM(P2:P17)</f>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
         <v>40</v>
@@ -1196,22 +1304,28 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="P19">
+        <f>SUM(P2:P18)</f>
+        <v>36</v>
+      </c>
       <c r="R19" t="s">
         <v>39</v>
       </c>
@@ -1223,24 +1337,24 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
       <c r="R20" t="s">
         <v>27</v>
       </c>
@@ -1252,24 +1366,24 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
       <c r="R21" t="s">
         <v>21</v>
       </c>
@@ -1281,20 +1395,20 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
       <c r="R22" t="s">
         <v>48</v>
       </c>
@@ -1306,22 +1420,22 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
       <c r="R23" t="s">
         <v>47</v>
       </c>
@@ -1333,22 +1447,22 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
       <c r="R24" t="s">
         <v>33</v>
       </c>
@@ -1360,24 +1474,24 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="3" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="3" t="s">
+      <c r="L25" s="7"/>
+      <c r="M25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="R25" t="s">
@@ -1391,20 +1505,20 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="2" t="s">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="R26" t="s">
@@ -1418,22 +1532,22 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
       <c r="R27" t="s">
         <v>35</v>
       </c>
@@ -1445,24 +1559,24 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="2" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="R28" t="s">
@@ -1476,22 +1590,22 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="12" t="s">
         <v>36</v>
       </c>
       <c r="R29" t="s">
@@ -1505,24 +1619,24 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="3" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="3" t="s">
+      <c r="L30" s="7"/>
+      <c r="M30" s="12" t="s">
         <v>29</v>
       </c>
       <c r="S30">
@@ -1534,43 +1648,43 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="3" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>Jan</t>
   </si>
@@ -204,6 +204,51 @@
   </si>
   <si>
     <t>CHARLOTTE DEMING</t>
+  </si>
+  <si>
+    <t>WILL EISENBERG</t>
+  </si>
+  <si>
+    <t>SOPHIA MAYMUDES</t>
+  </si>
+  <si>
+    <t>SOPHIA MAYAMUDES</t>
+  </si>
+  <si>
+    <t>DEREK ALLEN</t>
+  </si>
+  <si>
+    <t>TOM TABANAO</t>
+  </si>
+  <si>
+    <t>lyle / jack</t>
+  </si>
+  <si>
+    <t>DOUG PETERSON</t>
+  </si>
+  <si>
+    <t>KEN STERN</t>
+  </si>
+  <si>
+    <t>MICHAEL LIEBERMAN</t>
+  </si>
+  <si>
+    <t>SAL DADDARIO</t>
+  </si>
+  <si>
+    <t>JONATHAN KAYE</t>
+  </si>
+  <si>
+    <t>ELLEN ZEMLIN</t>
+  </si>
+  <si>
+    <t>SAM BUCHBINDER</t>
+  </si>
+  <si>
+    <t>ARDIAN POWELL</t>
+  </si>
+  <si>
+    <t>JAC CRABTREE</t>
   </si>
 </sst>
 </file>
@@ -219,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,6 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,8 +751,8 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
@@ -747,7 +798,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -775,11 +826,11 @@
       <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -806,7 +857,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
@@ -823,10 +874,10 @@
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" t="s">
         <v>32</v>
@@ -842,14 +893,16 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="18"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
         <v>35</v>
@@ -858,10 +911,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s">
         <v>13</v>
@@ -877,7 +930,9 @@
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
@@ -886,12 +941,12 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -916,7 +971,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -924,13 +979,13 @@
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
       <c r="O8" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -943,8 +998,8 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
@@ -959,13 +1014,13 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -992,22 +1047,22 @@
         <v>36</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1026,7 +1081,7 @@
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -1035,13 +1090,13 @@
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1051,8 +1106,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -1064,16 +1121,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1083,16 +1140,16 @@
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="7"/>
       <c r="J13" s="9" t="s">
         <v>38</v>
@@ -1101,13 +1158,13 @@
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1131,18 +1188,18 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1161,30 +1218,32 @@
       <c r="D15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1194,8 +1253,8 @@
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1210,16 +1269,16 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16">
         <v>2</v>
-      </c>
-      <c r="R16" t="s">
-        <v>53</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1229,7 +1288,9 @@
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
@@ -1241,7 +1302,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="6" t="s">
         <v>52</v>
       </c>
@@ -1249,13 +1310,13 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1275,7 +1336,7 @@
         <v>55</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="7"/>
       <c r="H18" s="9" t="s">
         <v>49</v>
@@ -1284,17 +1345,17 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1304,7 +1365,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1322,15 +1383,17 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
       <c r="P19">
-        <f>SUM(P2:P18)</f>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1346,20 +1409,26 @@
       <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
+      <c r="O20" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1369,7 +1438,9 @@
       <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9" t="s">
         <v>33</v>
@@ -1380,12 +1451,18 @@
         <v>47</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
       <c r="R21" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1398,22 +1475,34 @@
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="18"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
       <c r="R22" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1423,8 +1512,8 @@
       <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1436,8 +1525,12 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
+      <c r="P23">
+        <f>SUM(P2:P22)</f>
+        <v>48</v>
+      </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1458,16 +1551,16 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="R24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1482,20 +1575,22 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="9" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>26</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1505,8 +1600,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9" t="s">
         <v>32</v>
@@ -1515,17 +1612,21 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="13" t="s">
+      <c r="L26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1535,21 +1636,23 @@
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="R27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -1562,8 +1665,12 @@
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E28" s="6" t="s">
         <v>18</v>
       </c>
@@ -1572,18 +1679,20 @@
         <v>33</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="I28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="17"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1593,26 +1702,30 @@
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>36</v>
       </c>
       <c r="R29" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1622,8 +1735,8 @@
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="9" t="s">
@@ -1636,12 +1749,14 @@
         <v>39</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="12" t="s">
+      <c r="M30" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="R30" t="s">
+        <v>33</v>
+      </c>
       <c r="S30">
-        <f>SUM(S2:S29)</f>
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1651,40 +1766,120 @@
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="11" t="s">
         <v>33</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="16"/>
+      <c r="R32" t="s">
+        <v>69</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R33" t="s">
+        <v>72</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>35</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>64</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <f>SUM(S2:S39)</f>
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Jan</t>
   </si>
@@ -221,9 +221,6 @@
     <t>TOM TABANAO</t>
   </si>
   <si>
-    <t>lyle / jack</t>
-  </si>
-  <si>
     <t>DOUG PETERSON</t>
   </si>
   <si>
@@ -249,6 +246,42 @@
   </si>
   <si>
     <t>JAC CRABTREE</t>
+  </si>
+  <si>
+    <t>KYRALEESE</t>
+  </si>
+  <si>
+    <t>KATJA BRINCK</t>
+  </si>
+  <si>
+    <t>EMMA FREEMAN</t>
+  </si>
+  <si>
+    <t>SALLY HOELSCHER</t>
+  </si>
+  <si>
+    <t>LYLE BROUGHTON</t>
+  </si>
+  <si>
+    <t>DAVID MILLER</t>
+  </si>
+  <si>
+    <t>ALLEGRA</t>
+  </si>
+  <si>
+    <t>MADDIE WALTER</t>
+  </si>
+  <si>
+    <t>REBECCA GOLDSTEIN</t>
+  </si>
+  <si>
+    <t>LAWRENCE DENES</t>
+  </si>
+  <si>
+    <t>NICHOLAS PAPPAS</t>
+  </si>
+  <si>
+    <t>PAO ROY</t>
   </si>
 </sst>
 </file>
@@ -264,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +319,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -410,7 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +830,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -833,7 +859,9 @@
       <c r="F4" s="17"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="6" t="s">
@@ -841,7 +869,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -861,8 +889,12 @@
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -874,7 +906,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -900,8 +932,12 @@
         <v>31</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
@@ -911,10 +947,10 @@
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s">
         <v>13</v>
@@ -931,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
@@ -946,10 +982,10 @@
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s">
         <v>38</v>
@@ -968,7 +1004,9 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="17"/>
@@ -979,13 +1017,13 @@
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1014,13 +1052,13 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1036,7 +1074,9 @@
       <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1046,20 +1086,22 @@
       <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="I10" s="17"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1083,20 +1125,22 @@
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1107,11 +1151,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1121,16 +1169,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="P12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1150,7 +1198,9 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="J13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1158,16 +1208,16 @@
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1193,13 +1243,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1234,13 +1284,13 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1269,16 +1319,16 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1310,16 +1360,16 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P17">
+        <v>13</v>
+      </c>
+      <c r="R17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17">
         <v>2</v>
-      </c>
-      <c r="R17" t="s">
-        <v>67</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1349,13 +1399,13 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1369,7 +1419,9 @@
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -1384,13 +1436,13 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1419,13 +1471,13 @@
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -1439,30 +1491,36 @@
         <v>39</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="E21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="J21" s="17"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1486,20 +1544,20 @@
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
       <c r="I22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1525,15 +1583,17 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
       <c r="P23">
-        <f>SUM(P2:P22)</f>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1547,7 +1607,9 @@
         <v>14</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1556,11 +1618,17 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
       <c r="R24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1589,8 +1657,14 @@
       <c r="M25" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
       <c r="R25" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1602,9 +1676,11 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>32</v>
       </c>
@@ -1617,16 +1693,22 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
       <c r="R26" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1637,7 +1719,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>57</v>
@@ -1651,11 +1733,17 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
       <c r="R27" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1688,11 +1776,17 @@
       <c r="M28" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="O28" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
       <c r="R28" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1703,29 +1797,37 @@
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1752,11 +1854,17 @@
       <c r="M30" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
       <c r="R30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="S30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1775,7 +1883,7 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="17"/>
@@ -1785,11 +1893,15 @@
       <c r="M31" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="P31">
+        <f>SUM(P2:P30)</f>
+        <v>62</v>
+      </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1813,7 +1925,7 @@
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
       <c r="R32" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -1821,7 +1933,7 @@
     </row>
     <row r="33" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -1829,15 +1941,15 @@
     </row>
     <row r="34" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R34" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -1845,7 +1957,7 @@
     </row>
     <row r="36" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R36" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -1853,7 +1965,7 @@
     </row>
     <row r="37" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R37" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -1861,24 +1973,56 @@
     </row>
     <row r="38" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R38" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R39" t="s">
+        <v>35</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>64</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R43" t="s">
         <v>14</v>
       </c>
-      <c r="S39">
+      <c r="S43">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S40">
-        <f>SUM(S2:S39)</f>
-        <v>62</v>
+    <row r="44" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <f>SUM(S2:S43)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
   <si>
     <t>Jan</t>
   </si>
@@ -720,7 +720,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +804,7 @@
         <v>29</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -1074,8 +1074,8 @@
       <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
+      <c r="D10" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>25</v>
@@ -1198,7 +1198,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="9" t="s">
         <v>83</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1230,7 +1230,9 @@
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="9" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2024,7 @@
     <row r="44" spans="18:19" x14ac:dyDescent="0.35">
       <c r="S44">
         <f>SUM(S2:S43)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>Jan</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>PAO ROY</t>
+  </si>
+  <si>
+    <t>MAYA HANDA</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
   <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1397,9 @@
         <v>49</v>
       </c>
       <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="11" t="s">
@@ -1473,10 +1478,10 @@
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
         <v>45</v>
@@ -1516,10 +1521,10 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
         <v>78</v>
@@ -1553,7 +1558,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1586,10 +1591,10 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" t="s">
         <v>22</v>
@@ -1621,10 +1626,10 @@
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
         <v>53</v>
@@ -1660,10 +1665,10 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25" t="s">
         <v>58</v>
@@ -1701,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R26" t="s">
         <v>40</v>
@@ -1736,7 +1741,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -1779,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -1820,10 +1825,10 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" t="s">
         <v>27</v>
@@ -1857,10 +1862,10 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R30" t="s">
         <v>21</v>
@@ -1895,9 +1900,11 @@
       <c r="M31" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
       <c r="P31">
-        <f>SUM(P2:P30)</f>
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="R31" t="s">
         <v>48</v>
@@ -1926,6 +1933,10 @@
       <c r="K32" s="14"/>
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
+      <c r="P32">
+        <f>SUM(P2:P31)</f>
+        <v>63</v>
+      </c>
       <c r="R32" t="s">
         <v>47</v>
       </c>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="97">
   <si>
     <t>Jan</t>
   </si>
@@ -285,6 +285,36 @@
   </si>
   <si>
     <t>MAYA HANDA</t>
+  </si>
+  <si>
+    <t>KATE HAWKINS</t>
+  </si>
+  <si>
+    <t>MATT BERGER</t>
+  </si>
+  <si>
+    <t>MICHAEL BUERKE</t>
+  </si>
+  <si>
+    <t>WILL RIVITZ</t>
+  </si>
+  <si>
+    <t>MIKKEL SNYDER</t>
+  </si>
+  <si>
+    <t>MARSHALL JIANG</t>
+  </si>
+  <si>
+    <t>NATHANIEL BARNETT</t>
+  </si>
+  <si>
+    <t>BRETT ROSE</t>
+  </si>
+  <si>
+    <t>DAVID MAYAMUDES</t>
+  </si>
+  <si>
+    <t>PARKER HIGGINS</t>
   </si>
 </sst>
 </file>
@@ -418,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -440,6 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -829,8 +860,12 @@
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
         <v>80</v>
@@ -842,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -878,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -915,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -956,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -975,7 +1010,9 @@
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -991,7 +1028,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1026,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1061,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1104,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1127,7 +1164,9 @@
         <v>44</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="6" t="s">
         <v>74</v>
       </c>
@@ -1143,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1178,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1207,20 +1246,24 @@
       <c r="J13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1248,13 +1291,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="P14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1289,16 +1332,16 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1324,13 +1367,13 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1365,16 +1408,16 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P17">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1400,19 +1443,21 @@
       <c r="J18" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1436,23 +1481,23 @@
         <v>48</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="6" t="s">
-        <v>59</v>
+      <c r="J19" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1473,21 +1518,23 @@
       <c r="G20" s="7"/>
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1521,13 +1568,13 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1546,7 +1593,9 @@
       <c r="D22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
@@ -1558,16 +1607,16 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1591,16 +1640,16 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1613,7 +1662,9 @@
       <c r="C24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="9" t="s">
         <v>45</v>
       </c>
@@ -1621,18 +1672,20 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -1648,7 +1701,9 @@
       <c r="C25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="17"/>
       <c r="G25" s="7"/>
@@ -1665,13 +1720,13 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1706,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -1732,7 +1787,9 @@
         <v>57</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="17"/>
       <c r="I27" s="7"/>
@@ -1741,13 +1798,13 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R27" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -1784,13 +1841,13 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="P28">
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -1806,7 +1863,9 @@
       <c r="C29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="6" t="s">
         <v>55</v>
       </c>
@@ -1825,16 +1884,16 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P29">
         <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1862,16 +1921,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S30">
         <v>3</v>
-      </c>
-      <c r="R30" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1892,25 +1951,29 @@
       <c r="G31" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I31" s="17"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1930,112 +1993,200 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="14"/>
+      <c r="K32" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
       <c r="P32">
-        <f>SUM(P2:P31)</f>
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="R32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="P33">
+        <f>SUM(P2:P32)</f>
+        <v>66</v>
+      </c>
+      <c r="R33" t="s">
+        <v>67</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R35" t="s">
+        <v>91</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
         <v>47</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R33" t="s">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
         <v>84</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R34" t="s">
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
         <v>33</v>
       </c>
-      <c r="S34">
+      <c r="S42">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R35" t="s">
+    <row r="43" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R43" t="s">
+        <v>96</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R44" t="s">
         <v>42</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R36" t="s">
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R45" t="s">
         <v>68</v>
       </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R37" t="s">
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R46" t="s">
         <v>71</v>
       </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R38" t="s">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R47" t="s">
         <v>26</v>
       </c>
-      <c r="S38">
+      <c r="S47">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R39" t="s">
+    <row r="48" spans="16:19" x14ac:dyDescent="0.35">
+      <c r="R48" t="s">
         <v>35</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R40" t="s">
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R49" t="s">
         <v>24</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R41" t="s">
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R50" t="s">
         <v>64</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R42" t="s">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R51" t="s">
         <v>60</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R43" t="s">
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R52" t="s">
+        <v>90</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R53" t="s">
         <v>14</v>
       </c>
-      <c r="S43">
+      <c r="S53">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S44">
-        <f>SUM(S2:S43)</f>
-        <v>68</v>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S54">
+        <f>SUM(S2:S53)</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
   <si>
     <t>Jan</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>PARKER HIGGINS</t>
+  </si>
+  <si>
+    <t>JOHN PETRUCCI</t>
+  </si>
+  <si>
+    <t>RAHUL JAKATI</t>
+  </si>
+  <si>
+    <t>BRIAN CIMMET</t>
+  </si>
+  <si>
+    <t>EMMA OXFORD</t>
+  </si>
+  <si>
+    <t>EMILY FLYNN</t>
+  </si>
+  <si>
+    <t>SHREYA RAMACHANDRAN</t>
   </si>
 </sst>
 </file>
@@ -448,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -471,6 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,7 +842,9 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="4" t="s">
         <v>37</v>
@@ -855,7 +876,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
@@ -950,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -982,7 +1005,9 @@
         <v>35</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
         <v>72</v>
@@ -991,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -1028,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="R7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1047,7 +1072,9 @@
       <c r="D8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="17"/>
       <c r="H8" s="7"/>
@@ -1060,10 +1087,10 @@
         <v>59</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S8">
         <v>2</v>
@@ -1095,13 +1122,13 @@
         <v>70</v>
       </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9">
         <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1135,13 +1162,13 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1176,13 +1203,13 @@
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1204,20 +1231,22 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1254,13 +1283,13 @@
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1291,13 +1320,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1332,16 +1361,16 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="P15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1353,7 +1382,9 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1367,16 +1398,16 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1408,13 +1439,13 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1451,13 +1482,13 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="P18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1488,16 +1519,16 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1525,13 +1556,13 @@
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1568,16 +1599,16 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1596,7 +1627,9 @@
       <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
       <c r="I22" s="6" t="s">
@@ -1607,16 +1640,16 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1630,7 +1663,9 @@
       <c r="D23" s="17"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="H23" s="6" t="s">
         <v>46</v>
       </c>
@@ -1640,13 +1675,13 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1679,16 +1714,16 @@
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1720,16 +1755,16 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>78</v>
+      </c>
+      <c r="S25">
         <v>2</v>
-      </c>
-      <c r="R25" t="s">
-        <v>88</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1761,13 +1796,13 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -1780,9 +1815,7 @@
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
@@ -1798,16 +1831,16 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1841,13 +1874,13 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -1884,16 +1917,16 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29">
         <v>2</v>
-      </c>
-      <c r="R29" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1905,7 +1938,9 @@
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="9" t="s">
         <v>33</v>
@@ -1921,16 +1956,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="P30">
         <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1964,13 +1999,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -1999,145 +2034,163 @@
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
       <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O33" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s">
+        <v>89</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O34" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O35" t="s">
         <v>56</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="R32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P36">
+        <f>SUM(P2:P35)</f>
+        <v>69</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R37" t="s">
+        <v>91</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="P33">
-        <f>SUM(P2:P32)</f>
-        <v>66</v>
-      </c>
-      <c r="R33" t="s">
-        <v>67</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R34" t="s">
-        <v>27</v>
-      </c>
-      <c r="S34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R35" t="s">
-        <v>91</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R38" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38">
+    <row r="41" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R41" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R39" t="s">
-        <v>93</v>
-      </c>
-      <c r="S39">
+    <row r="42" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R43" t="s">
+        <v>84</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R44" t="s">
+        <v>33</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R45" t="s">
+        <v>96</v>
+      </c>
+      <c r="S45">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R40" t="s">
-        <v>47</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R41" t="s">
-        <v>84</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R42" t="s">
-        <v>33</v>
-      </c>
-      <c r="S42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R43" t="s">
-        <v>96</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R44" t="s">
+    <row r="46" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R46" t="s">
         <v>42</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R45" t="s">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R47" t="s">
+        <v>98</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R48" t="s">
         <v>68</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R46" t="s">
-        <v>71</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R47" t="s">
-        <v>26</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="16:19" x14ac:dyDescent="0.35">
-      <c r="R48" t="s">
-        <v>35</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2145,7 +2198,7 @@
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -2153,15 +2206,15 @@
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -2169,7 +2222,7 @@
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2177,16 +2230,40 @@
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
+        <v>64</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R54" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R55" t="s">
+        <v>90</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R56" t="s">
         <v>14</v>
       </c>
-      <c r="S53">
+      <c r="S56">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S54">
-        <f>SUM(S2:S53)</f>
-        <v>82</v>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S57">
+        <f>SUM(S2:S56)</f>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
   <si>
     <t>Jan</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>SHREYA RAMACHANDRAN</t>
+  </si>
+  <si>
+    <t>BRENDAN SULLIVAN</t>
+  </si>
+  <si>
+    <t>ALICIA HUGGETT</t>
   </si>
 </sst>
 </file>
@@ -770,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,10 +856,10 @@
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="s">
         <v>29</v>
@@ -891,10 +897,10 @@
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
         <v>36</v>
@@ -916,7 +922,9 @@
       <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -930,13 +938,13 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -967,13 +975,13 @@
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1010,16 +1018,16 @@
       </c>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -1047,13 +1055,13 @@
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -1084,16 +1092,16 @@
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1119,13 +1127,13 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -1162,16 +1170,16 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1203,13 +1211,13 @@
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1240,13 +1248,13 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1283,13 +1291,13 @@
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1320,13 +1328,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1361,13 +1369,13 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1398,16 +1406,16 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -1439,16 +1447,16 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1482,13 +1490,13 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1519,13 +1527,13 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1556,13 +1564,13 @@
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1599,16 +1607,16 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1640,16 +1648,16 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1661,7 +1669,9 @@
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="s">
         <v>100</v>
@@ -1675,13 +1685,13 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1714,16 +1724,16 @@
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1755,13 +1765,13 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -1796,16 +1806,16 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1815,7 +1825,9 @@
       <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
@@ -1831,13 +1843,13 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -1874,13 +1886,13 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -1917,16 +1929,16 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="P29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -1956,16 +1968,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30">
         <v>2</v>
-      </c>
-      <c r="R30" t="s">
-        <v>53</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1999,13 +2011,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2034,83 +2046,89 @@
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
       <c r="O32" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="S32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="P33">
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O36" t="s">
         <v>56</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
         <v>67</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="P36">
-        <f>SUM(P2:P35)</f>
-        <v>69</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P37">
+        <f>SUM(P3:P36)</f>
+        <v>70</v>
+      </c>
+      <c r="R37" t="s">
         <v>27</v>
       </c>
-      <c r="S36">
+      <c r="S37">
         <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R37" t="s">
-        <v>91</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
       </c>
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R38" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2118,7 +2136,7 @@
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R39" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2126,15 +2144,15 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R40" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R41" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="S41">
         <v>2</v>
@@ -2142,15 +2160,15 @@
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R42" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R43" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -2158,31 +2176,31 @@
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R44" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R46" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R47" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -2190,7 +2208,7 @@
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2198,7 +2216,7 @@
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -2206,23 +2224,23 @@
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2230,7 +2248,7 @@
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -2238,7 +2256,7 @@
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2246,7 +2264,7 @@
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2254,16 +2272,24 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
+        <v>90</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R57" t="s">
         <v>14</v>
       </c>
-      <c r="S56">
+      <c r="S57">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S57">
-        <f>SUM(S2:S56)</f>
-        <v>87</v>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <f>SUM(S2:S57)</f>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2116,8 +2116,8 @@
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="P37">
-        <f>SUM(P3:P36)</f>
-        <v>70</v>
+        <f>SUM(P2:P36)</f>
+        <v>71</v>
       </c>
       <c r="R37" t="s">
         <v>27</v>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
   <si>
     <t>Jan</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>ALICIA HUGGETT</t>
+  </si>
+  <si>
+    <t>MALAIKA HANDA</t>
   </si>
 </sst>
 </file>
@@ -778,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,7 +1363,9 @@
         <v>27</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
@@ -1610,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="P21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R21" t="s">
         <v>69</v>
@@ -2117,7 +2122,7 @@
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="P37">
         <f>SUM(P2:P36)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s">
         <v>27</v>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
   <si>
     <t>Jan</t>
   </si>
@@ -176,9 +176,6 @@
     <t>MATT MORRISON</t>
   </si>
   <si>
-    <t>MARTINA</t>
-  </si>
-  <si>
     <t>ANGIE KIM</t>
   </si>
   <si>
@@ -341,7 +338,22 @@
     <t>ALICIA HUGGETT</t>
   </si>
   <si>
-    <t>MALAIKA HANDA</t>
+    <t>MARTINA WALUK</t>
+  </si>
+  <si>
+    <t>ROSS TRUDEAU</t>
+  </si>
+  <si>
+    <t>BILL DERUSHA</t>
+  </si>
+  <si>
+    <t>DEB AMLEN</t>
+  </si>
+  <si>
+    <t>ALI GASCOIGNE</t>
+  </si>
+  <si>
+    <t>ADESINA KOIKI</t>
   </si>
 </sst>
 </file>
@@ -779,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,14 +864,14 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -884,19 +896,21 @@
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="F3" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="17"/>
       <c r="J3" s="7"/>
       <c r="K3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
@@ -923,16 +937,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -941,13 +955,13 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -962,13 +976,15 @@
         <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
@@ -984,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1005,10 +1021,10 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="7"/>
@@ -1017,17 +1033,17 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1041,16 +1057,18 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="17"/>
@@ -1058,16 +1076,16 @@
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -1078,13 +1096,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="17"/>
@@ -1101,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -1130,16 +1148,16 @@
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -1159,13 +1177,13 @@
         <v>25</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="7"/>
@@ -1173,16 +1191,16 @@
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1193,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>27</v>
@@ -1206,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1214,16 +1232,16 @@
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1232,18 +1250,18 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1251,16 +1269,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1271,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>26</v>
@@ -1281,16 +1299,16 @@
       <c r="G13" s="7"/>
       <c r="H13" s="17"/>
       <c r="I13" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
@@ -1300,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1331,13 +1349,13 @@
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1351,20 +1369,20 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="6" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1374,13 +1392,13 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1396,10 +1414,12 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9" t="s">
         <v>22</v>
@@ -1407,17 +1427,19 @@
       <c r="J16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1431,13 +1453,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>48</v>
@@ -1446,22 +1468,22 @@
       <c r="H17" s="7"/>
       <c r="I17" s="17"/>
       <c r="J17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -1475,9 +1497,11 @@
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="17"/>
       <c r="G18" s="7"/>
       <c r="H18" s="9" t="s">
@@ -1485,23 +1509,23 @@
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1526,7 +1550,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -1535,13 +1559,13 @@
         <v>74</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1563,19 +1587,19 @@
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1589,36 +1613,36 @@
         <v>39</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="P21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1635,34 +1659,34 @@
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="6" t="s">
-        <v>65</v>
+      <c r="I22" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -1675,11 +1699,11 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>46</v>
@@ -1690,13 +1714,13 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1718,27 +1742,29 @@
       <c r="E24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="17"/>
       <c r="J24" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1759,7 +1785,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="9" t="s">
@@ -1770,16 +1796,16 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1788,10 +1814,10 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>32</v>
@@ -1805,22 +1831,22 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1834,11 +1860,11 @@
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="17"/>
@@ -1848,16 +1874,16 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1871,7 +1897,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>18</v>
@@ -1881,8 +1907,8 @@
         <v>33</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="6" t="s">
-        <v>64</v>
+      <c r="I28" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="7"/>
@@ -1891,16 +1917,16 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S28">
         <v>2</v>
-      </c>
-      <c r="R28" t="s">
-        <v>88</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1911,22 +1937,22 @@
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -1934,13 +1960,13 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -1956,7 +1982,7 @@
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="9" t="s">
@@ -1973,16 +1999,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -1997,18 +2023,18 @@
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="17"/>
       <c r="J31" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2016,13 +2042,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2046,46 +2072,46 @@
       <c r="I32" s="14"/>
       <c r="J32" s="18"/>
       <c r="K32" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="P33">
         <v>2</v>
       </c>
       <c r="R33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2093,63 +2119,75 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="P35">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35">
         <v>3</v>
-      </c>
-      <c r="R35" t="s">
-        <v>39</v>
-      </c>
-      <c r="S35">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="S36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
       <c r="P37">
-        <f>SUM(P2:P36)</f>
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="R37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P39">
+        <f>SUM(P2:P38)</f>
+        <v>76</v>
+      </c>
+      <c r="R39" t="s">
         <v>27</v>
       </c>
-      <c r="S37">
+      <c r="S39">
         <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R38" t="s">
-        <v>91</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R40" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2157,71 +2195,71 @@
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R41" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R42" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R44" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R45" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R46" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -2229,7 +2267,7 @@
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -2237,15 +2275,15 @@
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2253,7 +2291,7 @@
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -2261,15 +2299,15 @@
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2277,7 +2315,7 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -2285,16 +2323,40 @@
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
+        <v>63</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R58" t="s">
+        <v>59</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
+        <v>89</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R60" t="s">
         <v>14</v>
       </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S58">
-        <f>SUM(S2:S57)</f>
-        <v>88</v>
+      <c r="S60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <f>SUM(S2:S60)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
   <si>
     <t>Jan</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>ADESINA KOIKI</t>
+  </si>
+  <si>
+    <t>STEPH BROWN</t>
   </si>
 </sst>
 </file>
@@ -793,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1190,9 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="O10" t="s">
@@ -1436,7 +1441,7 @@
         <v>31</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
         <v>64</v>
@@ -1542,7 +1547,9 @@
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="9" t="s">
@@ -2161,7 +2168,7 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -2174,9 +2181,11 @@
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O39" t="s">
+        <v>55</v>
+      </c>
       <c r="P39">
-        <f>SUM(P2:P38)</f>
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
         <v>27</v>
@@ -2186,6 +2195,10 @@
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P40">
+        <f>SUM(P2:P39)</f>
+        <v>78</v>
+      </c>
       <c r="R40" t="s">
         <v>90</v>
       </c>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
   <si>
     <t>Jan</t>
   </si>
@@ -357,6 +357,18 @@
   </si>
   <si>
     <t>STEPH BROWN</t>
+  </si>
+  <si>
+    <t>PAUL SIRMA</t>
+  </si>
+  <si>
+    <t>ELEANOR AVRIL</t>
+  </si>
+  <si>
+    <t>ASHU HANDA</t>
+  </si>
+  <si>
+    <t>QUIARA VASQUEZ</t>
   </si>
 </sst>
 </file>
@@ -794,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1085,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1147,7 +1159,9 @@
         <v>44</v>
       </c>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="9" t="s">
+        <v>113</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
@@ -1157,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1202,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -1243,10 +1257,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1274,13 +1288,13 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S12">
         <v>2</v>
@@ -1317,16 +1331,16 @@
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1347,20 +1361,22 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="I14" s="7"/>
       <c r="J14" s="17"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1397,13 +1413,13 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1438,13 +1454,13 @@
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1479,13 +1495,13 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1524,13 +1540,13 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1563,16 +1579,16 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -1589,7 +1605,9 @@
         <v>40</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="17"/>
       <c r="I20" s="7"/>
@@ -1598,18 +1616,20 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="O20" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1643,13 +1663,13 @@
       <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="O21" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1679,18 +1699,20 @@
       <c r="I22" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1721,13 +1743,13 @@
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1762,16 +1784,16 @@
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R24" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -1803,16 +1825,16 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1844,13 +1866,13 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -1881,16 +1903,16 @@
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -1924,13 +1946,13 @@
         <v>18</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="S28">
         <v>2</v>
@@ -1967,16 +1989,16 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2006,13 +2028,13 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -2049,13 +2071,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2084,41 +2106,41 @@
       <c r="L32" s="18"/>
       <c r="M32" s="16"/>
       <c r="O32" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33">
         <v>2</v>
-      </c>
-      <c r="R33" t="s">
-        <v>52</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2126,97 +2148,109 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
         <v>55</v>
       </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="R39" t="s">
-        <v>27</v>
-      </c>
-      <c r="S39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="P40">
-        <f>SUM(P2:P39)</f>
-        <v>78</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
         <v>90</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R41" t="s">
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <f>SUM(P2:P41)</f>
+        <v>81</v>
+      </c>
+      <c r="R42" t="s">
         <v>21</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R42" t="s">
-        <v>28</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -2224,15 +2258,15 @@
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R43" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R44" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="S44">
         <v>2</v>
@@ -2240,15 +2274,15 @@
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R45" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R46" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -2256,31 +2290,31 @@
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R47" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="S47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -2288,7 +2322,7 @@
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -2296,7 +2330,7 @@
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2304,7 +2338,7 @@
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -2312,15 +2346,15 @@
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2328,15 +2362,15 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2344,7 +2378,7 @@
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -2352,7 +2386,7 @@
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2360,16 +2394,32 @@
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
+        <v>59</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
+        <v>89</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
         <v>14</v>
       </c>
-      <c r="S60">
+      <c r="S62">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S61">
-        <f>SUM(S2:S60)</f>
-        <v>90</v>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S63">
+        <f>SUM(S2:S62)</f>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
   <si>
     <t>Jan</t>
   </si>
@@ -384,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,13 +525,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -866,8 +872,8 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
@@ -878,10 +884,10 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
@@ -919,7 +925,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="17"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="7"/>
       <c r="K3" s="9" t="s">
         <v>93</v>
@@ -957,7 +963,7 @@
       <c r="E4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
@@ -986,7 +992,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
@@ -996,7 +1002,9 @@
       <c r="E5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>106</v>
       </c>
@@ -1005,7 +1013,7 @@
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
@@ -1034,14 +1042,14 @@
       <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="7"/>
       <c r="J6" s="9" t="s">
         <v>35</v>
@@ -1086,10 +1094,10 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="M7" s="16"/>
       <c r="O7" t="s">
         <v>71</v>
       </c>
@@ -1120,7 +1128,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1147,8 +1155,8 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1170,7 @@
       <c r="K9" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
         <v>58</v>
@@ -1202,7 +1210,7 @@
       <c r="H10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6" t="s">
         <v>110</v>
@@ -1238,7 +1246,7 @@
       <c r="E11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1267,7 +1275,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>77</v>
       </c>
@@ -1284,7 +1292,7 @@
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
@@ -1313,10 +1321,12 @@
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="9" t="s">
         <v>82</v>
       </c>
@@ -1365,10 +1375,10 @@
         <v>111</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="16"/>
       <c r="O14" t="s">
         <v>100</v>
       </c>
@@ -1401,7 +1411,7 @@
       <c r="F15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1432,8 +1442,8 @@
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="9" t="s">
         <v>95</v>
       </c>
@@ -1451,7 +1461,7 @@
       <c r="K16" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
         <v>99</v>
@@ -1487,7 +1497,7 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1523,8 +1533,10 @@
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>49</v>
       </c>
@@ -1556,7 +1568,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
@@ -1575,7 +1587,7 @@
       <c r="J19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
@@ -1604,12 +1616,12 @@
       <c r="D20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="6" t="s">
         <v>112</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="17"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
         <v>58</v>
@@ -1658,10 +1670,10 @@
       <c r="I21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="16"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="M21" s="16"/>
       <c r="O21" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1706,7 @@
       <c r="F22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="7"/>
       <c r="I22" s="9" t="s">
         <v>64</v>
@@ -1725,8 +1737,8 @@
       <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="6" t="s">
         <v>103</v>
       </c>
@@ -1740,7 +1752,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
         <v>80</v>
@@ -1776,7 +1788,7 @@
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
-      <c r="I24" s="17"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="9" t="s">
         <v>90</v>
       </c>
@@ -1787,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="P24">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R24" t="s">
         <v>68</v>
@@ -1810,7 +1822,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
@@ -1841,7 +1853,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="9" t="s">
         <v>68</v>
       </c>
@@ -1858,7 +1870,7 @@
       <c r="J26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="9" t="s">
         <v>70</v>
       </c>
@@ -1891,17 +1903,19 @@
       <c r="D27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="M27" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="O27" t="s">
         <v>85</v>
       </c>
@@ -1939,12 +1953,10 @@
       <c r="I28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="17"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="M28" s="16"/>
       <c r="O28" t="s">
         <v>51</v>
       </c>
@@ -1977,7 +1989,7 @@
       <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6" t="s">
@@ -2008,8 +2020,8 @@
       <c r="B30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="9" t="s">
         <v>98</v>
       </c>
@@ -2023,7 +2035,7 @@
       <c r="K30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="11" t="s">
         <v>29</v>
       </c>
@@ -2047,7 +2059,7 @@
       <c r="B31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2061,7 +2073,7 @@
       <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="9" t="s">
         <v>89</v>
       </c>
@@ -2090,21 +2102,21 @@
       <c r="B32" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="21" t="s">
+      <c r="J32" s="17"/>
+      <c r="K32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="22"/>
       <c r="O32" t="s">
         <v>44</v>
       </c>
@@ -2247,7 +2259,7 @@
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="P42">
         <f>SUM(P2:P41)</f>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R42" t="s">
         <v>21</v>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
   <si>
     <t>Jan</t>
   </si>
@@ -164,9 +164,6 @@
     <t>LUCIANO SPANTO</t>
   </si>
   <si>
-    <t>STEPHANIE</t>
-  </si>
-  <si>
     <t>NEVILLE FOGARTY</t>
   </si>
   <si>
@@ -369,6 +366,33 @@
   </si>
   <si>
     <t>QUIARA VASQUEZ</t>
+  </si>
+  <si>
+    <t>WILL NEDIGER</t>
+  </si>
+  <si>
+    <t>WILL PFADENHAUER</t>
+  </si>
+  <si>
+    <t>KAREN STOCK</t>
+  </si>
+  <si>
+    <t>IZZY CULVER</t>
+  </si>
+  <si>
+    <t>SASWAT MISHRA</t>
+  </si>
+  <si>
+    <t>JESSIE BULLOCK</t>
+  </si>
+  <si>
+    <t>MATTHEW LUTER</t>
+  </si>
+  <si>
+    <t>BEN TOLKIN</t>
+  </si>
+  <si>
+    <t>RORY WHELAN</t>
   </si>
 </sst>
 </file>
@@ -812,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,14 +909,14 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -918,20 +942,22 @@
         <v>41</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="16"/>
       <c r="J3" s="7"/>
       <c r="K3" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
@@ -958,16 +984,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -976,13 +1002,13 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -997,16 +1023,16 @@
         <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1023,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1044,10 +1070,10 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="7"/>
@@ -1056,17 +1082,17 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="8"/>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1080,13 +1106,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="9" t="s">
@@ -1099,13 +1125,13 @@
       <c r="L7" s="7"/>
       <c r="M7" s="16"/>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1119,15 +1145,17 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1142,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1168,18 +1196,18 @@
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="8"/>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1202,18 +1230,18 @@
         <v>25</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="7"/>
       <c r="K10" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
@@ -1224,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="R10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1238,7 +1266,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>27</v>
@@ -1251,24 +1279,26 @@
         <v>20</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -1277,18 +1307,18 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1296,16 +1326,16 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1316,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>26</v>
@@ -1328,26 +1358,26 @@
       <c r="G13" s="7"/>
       <c r="H13" s="16"/>
       <c r="I13" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -1372,7 +1402,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="16"/>
@@ -1380,16 +1410,16 @@
       <c r="L14" s="7"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1400,13 +1430,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>27</v>
@@ -1423,13 +1453,13 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1445,13 +1475,15 @@
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>22</v>
       </c>
@@ -1459,18 +1491,18 @@
         <v>29</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1484,34 +1516,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="16"/>
       <c r="J17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1528,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>12</v>
@@ -1538,27 +1570,27 @@
         <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1581,23 +1613,23 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="16"/>
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1618,30 +1650,30 @@
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="16"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -1652,39 +1684,39 @@
         <v>39</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -1698,18 +1730,18 @@
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="7"/>
       <c r="I22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>18</v>
@@ -1718,13 +1750,13 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1740,28 +1772,30 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="16"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1784,25 +1818,29 @@
         <v>45</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
+      <c r="M24" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="O24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P24">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -1821,14 +1859,18 @@
       <c r="D25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K25" s="9" t="s">
         <v>34</v>
       </c>
@@ -1837,16 +1879,16 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -1855,10 +1897,10 @@
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>32</v>
@@ -1872,22 +1914,22 @@
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1901,29 +1943,31 @@
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="16"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -1940,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>18</v>
@@ -1951,23 +1995,23 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J28" s="16"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -1978,22 +2022,22 @@
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2001,13 +2045,13 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="S29">
         <v>2</v>
@@ -2023,7 +2067,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="9" t="s">
@@ -2046,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -2064,18 +2108,18 @@
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2083,13 +2127,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2113,18 +2157,18 @@
       <c r="I32" s="14"/>
       <c r="J32" s="17"/>
       <c r="K32" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="22"/>
       <c r="O32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2132,27 +2176,27 @@
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="P34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2160,41 +2204,41 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R37" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2202,27 +2246,27 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P38">
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2230,66 +2274,84 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
       <c r="P42">
-        <f>SUM(P2:P41)</f>
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="R42" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>89</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O44" t="s">
+        <v>54</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
         <v>21</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R43" t="s">
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P45">
+        <f>SUM(P2:P44)</f>
+        <v>87</v>
+      </c>
+      <c r="R45" t="s">
         <v>28</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R44" t="s">
-        <v>48</v>
-      </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R45" t="s">
-        <v>92</v>
-      </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
@@ -2297,52 +2359,52 @@
         <v>47</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R47" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2350,7 +2412,7 @@
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="S53">
         <v>1</v>
@@ -2358,7 +2420,7 @@
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2366,7 +2428,7 @@
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2374,15 +2436,15 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2390,7 +2452,7 @@
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -2398,7 +2460,7 @@
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2406,15 +2468,15 @@
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -2422,16 +2484,64 @@
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
+        <v>24</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R63" t="s">
+        <v>62</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R64" t="s">
+        <v>58</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R65" t="s">
+        <v>114</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R66" t="s">
+        <v>115</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R67" t="s">
+        <v>88</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R68" t="s">
         <v>14</v>
       </c>
-      <c r="S62">
+      <c r="S68">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S63">
-        <f>SUM(S2:S62)</f>
-        <v>92</v>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <f>SUM(S2:S68)</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
   <si>
     <t>Jan</t>
   </si>
@@ -393,6 +393,24 @@
   </si>
   <si>
     <t>RORY WHELAN</t>
+  </si>
+  <si>
+    <t>CLAIRE RIMKUS</t>
+  </si>
+  <si>
+    <t>HOANG-KIM VU</t>
+  </si>
+  <si>
+    <t>RASA GUARNACCIA</t>
+  </si>
+  <si>
+    <t>NATHAN DESAI</t>
+  </si>
+  <si>
+    <t>WOUTER VAN DIJKE</t>
+  </si>
+  <si>
+    <t>QUIN ABARR</t>
   </si>
 </sst>
 </file>
@@ -836,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R78" sqref="R78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -848,7 +866,7 @@
     <col min="14" max="14" width="1.7265625" customWidth="1"/>
     <col min="16" max="16" width="3.81640625" customWidth="1"/>
     <col min="17" max="17" width="1.6328125" customWidth="1"/>
-    <col min="19" max="19" width="3.08984375" customWidth="1"/>
+    <col min="19" max="19" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -901,7 +919,9 @@
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
         <v>38</v>
@@ -1034,14 +1054,18 @@
       <c r="G5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
+      <c r="M5" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="O5" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1138,9 @@
       <c r="E7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1183,9 @@
         <v>118</v>
       </c>
       <c r="G8" s="16"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1188,7 +1216,9 @@
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
@@ -1289,10 +1319,10 @@
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
         <v>97</v>
@@ -1315,7 +1345,9 @@
       <c r="E12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9" t="s">
         <v>96</v>
@@ -1326,7 +1358,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1371,7 +1403,7 @@
       </c>
       <c r="M13" s="8"/>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1410,7 +1442,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1453,7 +1485,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1496,7 +1528,7 @@
       <c r="L16" s="16"/>
       <c r="M16" s="8"/>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1537,7 +1569,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1584,10 +1616,10 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
         <v>63</v>
@@ -1623,10 +1655,10 @@
       <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
         <v>19</v>
@@ -1659,15 +1691,17 @@
         <v>57</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="M20" s="12" t="s">
         <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R20" t="s">
         <v>34</v>
@@ -1707,7 +1741,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -1750,7 +1784,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -1789,16 +1823,16 @@
       <c r="L23" s="16"/>
       <c r="M23" s="8"/>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -1834,13 +1868,13 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -1879,13 +1913,13 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1920,16 +1954,16 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -1961,16 +1995,16 @@
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="P27">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -2002,13 +2036,13 @@
       <c r="L28" s="7"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2036,8 +2070,8 @@
       <c r="G29" s="16"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6" t="s">
-        <v>73</v>
+      <c r="J29" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2045,16 +2079,16 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -2075,7 +2109,9 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="K30" s="9" t="s">
         <v>39</v>
       </c>
@@ -2084,13 +2120,13 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="S30">
         <v>2</v>
@@ -2110,7 +2146,9 @@
       <c r="E31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G31" s="6" t="s">
         <v>70</v>
       </c>
@@ -2127,16 +2165,16 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2162,13 +2200,13 @@
       <c r="L32" s="17"/>
       <c r="M32" s="22"/>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2176,13 +2214,13 @@
     </row>
     <row r="33" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2190,13 +2228,13 @@
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2204,41 +2242,41 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2246,125 +2284,137 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P40">
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="S41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="S42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s">
+        <v>89</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O46" t="s">
         <v>54</v>
       </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="R44" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="P45">
-        <f>SUM(P2:P44)</f>
-        <v>87</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="R46" t="s">
         <v>28</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R46" t="s">
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P47">
+        <f>SUM(P2:P46)</f>
+        <v>91</v>
+      </c>
+      <c r="R47" t="s">
         <v>47</v>
-      </c>
-      <c r="S46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R47" t="s">
-        <v>91</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -2372,7 +2422,7 @@
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2380,47 +2430,47 @@
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="S49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2428,7 +2478,7 @@
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2436,7 +2486,7 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -2444,7 +2494,7 @@
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2452,7 +2502,7 @@
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="S58">
         <v>1</v>
@@ -2460,7 +2510,7 @@
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2468,15 +2518,15 @@
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="S60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -2484,7 +2534,7 @@
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -2492,15 +2542,15 @@
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -2508,7 +2558,7 @@
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -2516,7 +2566,7 @@
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -2524,7 +2574,7 @@
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -2532,16 +2582,48 @@
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
+        <v>114</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R69" t="s">
+        <v>115</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R70" t="s">
+        <v>88</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R71" t="s">
+        <v>127</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R72" t="s">
         <v>14</v>
       </c>
-      <c r="S68">
+      <c r="S72">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S69">
-        <f>SUM(S2:S68)</f>
-        <v>99</v>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S73">
+        <f>SUM(S2:S72)</f>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -467,11 +467,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -479,36 +512,7 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
@@ -516,32 +520,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -550,30 +558,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R78" sqref="R78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,52 +881,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
@@ -928,11 +939,11 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="4" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
@@ -949,37 +960,37 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="15"/>
       <c r="O3" t="s">
         <v>20</v>
       </c>
@@ -994,33 +1005,33 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="15"/>
       <c r="O4" t="s">
         <v>78</v>
       </c>
@@ -1035,34 +1046,34 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="12" t="s">
         <v>123</v>
       </c>
@@ -1080,35 +1091,35 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="15"/>
       <c r="O6" t="s">
         <v>49</v>
       </c>
@@ -1123,32 +1134,32 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="16"/>
       <c r="O7" t="s">
         <v>70</v>
@@ -1164,33 +1175,33 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="15"/>
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -1205,31 +1216,31 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="15"/>
       <c r="O9" t="s">
         <v>57</v>
       </c>
@@ -1244,37 +1255,37 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="15"/>
       <c r="O10" t="s">
         <v>32</v>
       </c>
@@ -1289,35 +1300,35 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="15"/>
       <c r="O11" t="s">
         <v>123</v>
       </c>
@@ -1332,31 +1343,31 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="15"/>
       <c r="O12" t="s">
         <v>106</v>
       </c>
@@ -1371,37 +1382,37 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="9" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="15"/>
       <c r="O13" t="s">
         <v>111</v>
       </c>
@@ -1416,30 +1427,30 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
         <v>68</v>
@@ -1455,33 +1466,33 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O15" t="s">
@@ -1498,35 +1509,35 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="15"/>
       <c r="O16" t="s">
         <v>74</v>
       </c>
@@ -1540,34 +1551,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="15"/>
       <c r="O17" t="s">
         <v>98</v>
       </c>
@@ -1581,38 +1592,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="6" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="11" t="s">
+      <c r="L18" s="2"/>
+      <c r="M18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
@@ -1628,32 +1639,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="15"/>
       <c r="O19" t="s">
         <v>31</v>
       </c>
@@ -1667,31 +1678,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="3" t="s">
         <v>124</v>
       </c>
       <c r="M20" s="12" t="s">
@@ -1710,35 +1721,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
         <v>119</v>
@@ -1753,36 +1764,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="15"/>
       <c r="O22" t="s">
         <v>116</v>
       </c>
@@ -1796,32 +1807,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9" t="s">
+      <c r="I23" s="2"/>
+      <c r="J23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="8"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="15"/>
       <c r="O23" t="s">
         <v>85</v>
       </c>
@@ -1835,36 +1846,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9" t="s">
+      <c r="I24" s="4"/>
+      <c r="J24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="11" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="17" t="s">
         <v>22</v>
       </c>
       <c r="O24" t="s">
@@ -1880,36 +1891,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="O25" t="s">
@@ -1925,29 +1936,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="3" t="s">
         <v>69</v>
       </c>
       <c r="M26" s="12" t="s">
@@ -1966,31 +1977,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="9" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="9" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2007,33 +2018,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="9" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="9" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
         <v>12</v>
@@ -2048,34 +2059,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="9" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="11" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O29" t="s">
@@ -2090,33 +2101,34 @@
       <c r="S29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="W29" s="20"/>
+    </row>
+    <row r="30" spans="1:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="11" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O30" t="s">
@@ -2132,36 +2144,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="9" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="11" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="17" t="s">
         <v>33</v>
       </c>
       <c r="O31" t="s">
@@ -2177,28 +2189,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="20" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="22"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="18"/>
       <c r="O32" t="s">
         <v>50</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="15:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
         <v>43</v>
       </c>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -867,13 +867,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
     <col min="14" max="14" width="1.7265625" customWidth="1"/>
     <col min="16" max="16" width="3.81640625" customWidth="1"/>
     <col min="17" max="17" width="1.6328125" customWidth="1"/>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="143">
   <si>
     <t>Jan</t>
   </si>
@@ -411,16 +411,64 @@
   </si>
   <si>
     <t>QUIN ABARR</t>
+  </si>
+  <si>
+    <t>JACK JOSHI</t>
+  </si>
+  <si>
+    <t>LARRY AARONSON</t>
+  </si>
+  <si>
+    <t>MATTHEW HODGE</t>
+  </si>
+  <si>
+    <t>SONALEE RAU</t>
+  </si>
+  <si>
+    <t>JESS SHULMAN</t>
+  </si>
+  <si>
+    <t>BEN SHINDEL</t>
+  </si>
+  <si>
+    <t>JEREMY KOENIG</t>
+  </si>
+  <si>
+    <t>FINN VIGELAND</t>
+  </si>
+  <si>
+    <t>IAN RATHKEY</t>
+  </si>
+  <si>
+    <t>JOHN O'LEARY</t>
+  </si>
+  <si>
+    <t>PETER GORDON</t>
+  </si>
+  <si>
+    <t>RICHARD ALLEN</t>
+  </si>
+  <si>
+    <t>JAMES LARKIN</t>
+  </si>
+  <si>
+    <t>ANDREW PERICAK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -558,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -585,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +1006,7 @@
         <v>29</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -982,7 +1031,9 @@
       <c r="G3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
@@ -1023,7 +1074,9 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>78</v>
       </c>
@@ -1128,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1169,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1198,7 +1251,9 @@
       <c r="H8" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1210,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1249,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1288,13 +1343,13 @@
       <c r="L10" s="2"/>
       <c r="M10" s="15"/>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1331,13 +1386,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="15"/>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1360,7 +1415,9 @@
       <c r="F12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>96</v>
       </c>
@@ -1370,16 +1427,16 @@
       <c r="L12" s="2"/>
       <c r="M12" s="15"/>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -1415,16 +1472,16 @@
       </c>
       <c r="M13" s="15"/>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -1443,7 +1500,9 @@
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
         <v>110</v>
@@ -1454,16 +1513,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1497,16 +1556,16 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1521,7 +1580,9 @@
       <c r="E16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>107</v>
       </c>
@@ -1540,16 +1601,16 @@
       <c r="L16" s="4"/>
       <c r="M16" s="15"/>
       <c r="O16" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1572,25 +1633,31 @@
         <v>47</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1628,13 +1695,13 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -1654,8 +1721,12 @@
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
@@ -1667,13 +1738,13 @@
       <c r="L19" s="2"/>
       <c r="M19" s="15"/>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -1698,7 +1769,9 @@
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1710,13 +1783,13 @@
         <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1749,7 +1822,9 @@
         <v>75</v>
       </c>
       <c r="J21" s="4"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
@@ -1759,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
@@ -1802,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1820,7 +1895,9 @@
       <c r="E23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>98</v>
       </c>
@@ -1841,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
@@ -1886,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="R24" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
@@ -1931,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -1951,7 +2028,9 @@
       <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1972,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2013,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="S27">
         <v>2</v>
@@ -2035,7 +2114,9 @@
       <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>33</v>
       </c>
@@ -2054,7 +2135,7 @@
         <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2074,7 +2155,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>66</v>
@@ -2097,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2139,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2184,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2219,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="R32" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2233,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2247,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2261,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2275,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="R36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
@@ -2289,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2303,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2317,10 +2398,10 @@
         <v>5</v>
       </c>
       <c r="R39" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
@@ -2331,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="R40" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
@@ -2345,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S41">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
@@ -2359,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -2367,16 +2448,16 @@
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="S43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
@@ -2387,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="R44" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -2401,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="S45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
@@ -2415,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -2427,15 +2508,15 @@
         <v>91</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R48" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2443,23 +2524,23 @@
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R49" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -2467,31 +2548,31 @@
     </row>
     <row r="52" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="S53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="S54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -2499,7 +2580,7 @@
     </row>
     <row r="56" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -2507,7 +2588,7 @@
     </row>
     <row r="57" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2515,15 +2596,15 @@
     </row>
     <row r="58" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2531,15 +2612,15 @@
     </row>
     <row r="60" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="S61">
         <v>1</v>
@@ -2547,7 +2628,7 @@
     </row>
     <row r="62" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -2555,23 +2636,23 @@
     </row>
     <row r="63" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="S63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -2579,7 +2660,7 @@
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -2587,7 +2668,7 @@
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -2595,7 +2676,7 @@
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -2603,7 +2684,7 @@
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -2611,15 +2692,15 @@
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -2627,16 +2708,120 @@
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
+        <v>104</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R73" t="s">
+        <v>66</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R74" t="s">
+        <v>69</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R75" t="s">
+        <v>118</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R76" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R77" t="s">
+        <v>35</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R78" t="s">
+        <v>24</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R79" t="s">
+        <v>62</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R80" t="s">
+        <v>58</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R81" t="s">
+        <v>114</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R82" t="s">
+        <v>115</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R83" t="s">
+        <v>88</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R84" t="s">
+        <v>127</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R85" t="s">
         <v>14</v>
       </c>
-      <c r="S72">
+      <c r="S85">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S73">
-        <f>SUM(S2:S72)</f>
-        <v>105</v>
+    <row r="86" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S86">
+        <f>SUM(S2:S85)</f>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="148">
   <si>
     <t>Jan</t>
   </si>
@@ -185,9 +185,6 @@
     <t>MAY &amp; KEVIN</t>
   </si>
   <si>
-    <t>SONALEE R</t>
-  </si>
-  <si>
     <t>STEPHANIE FOX</t>
   </si>
   <si>
@@ -453,6 +450,24 @@
   </si>
   <si>
     <t>ANDREW PERICAK</t>
+  </si>
+  <si>
+    <t>SOLEIL SAINT-CYR</t>
+  </si>
+  <si>
+    <t>DEB KOKER</t>
+  </si>
+  <si>
+    <t>ANDREW PERRICONE</t>
+  </si>
+  <si>
+    <t>OLIVIA FRAMKE</t>
+  </si>
+  <si>
+    <t>MICHAEL MARCUS</t>
+  </si>
+  <si>
+    <t>AL SANDERS</t>
   </si>
 </sst>
 </file>
@@ -571,17 +586,6 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -602,11 +606,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,22 +633,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,14 +1006,14 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="14" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -1023,24 +1039,24 @@
         <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>130</v>
+        <v>118</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M3" s="15"/>
       <c r="O3" t="s">
@@ -1067,33 +1083,35 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="26" t="s">
-        <v>131</v>
+      <c r="H4" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M4" s="15"/>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1108,19 +1126,19 @@
         <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
@@ -1129,7 +1147,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="2"/>
       <c r="M5" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
@@ -1138,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1159,10 +1177,10 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="2"/>
@@ -1171,7 +1189,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="15"/>
       <c r="O6" t="s">
@@ -1181,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1195,16 +1213,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>14</v>
@@ -1216,13 +1234,13 @@
       <c r="L7" s="2"/>
       <c r="M7" s="16"/>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1239,20 +1257,20 @@
         <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1265,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1284,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1293,18 +1311,18 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="15"/>
       <c r="O9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1333,23 +1351,23 @@
         <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="15"/>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -1363,7 +1381,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -1376,23 +1394,23 @@
         <v>20</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="15"/>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1404,22 +1422,22 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1427,13 +1445,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="15"/>
       <c r="O12" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1447,7 +1465,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>26</v>
@@ -1456,29 +1474,31 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" s="15"/>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1501,11 +1521,11 @@
         <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="4"/>
@@ -1513,16 +1533,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -1536,10 +1556,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
@@ -1548,7 +1568,9 @@
       <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1556,16 +1578,16 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1578,16 +1600,16 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>22</v>
@@ -1596,21 +1618,21 @@
         <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="15"/>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1621,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>50</v>
@@ -1634,7 +1656,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="1" t="s">
@@ -1642,22 +1664,22 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1671,7 +1693,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1685,26 +1707,26 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18">
         <v>2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>93</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1722,32 +1744,32 @@
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="15"/>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
@@ -1765,31 +1787,31 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -1803,38 +1825,38 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1851,18 +1873,18 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>18</v>
@@ -1871,13 +1893,13 @@
       <c r="L22" s="2"/>
       <c r="M22" s="15"/>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1893,32 +1915,32 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
       <c r="M23" s="15"/>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1941,15 +1963,15 @@
         <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1957,16 +1979,16 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.35">
@@ -1983,16 +2005,18 @@
         <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>34</v>
@@ -2002,13 +2026,13 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2020,10 +2044,10 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>32</v>
@@ -2039,22 +2063,22 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
@@ -2068,34 +2092,34 @@
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
@@ -2109,33 +2133,35 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="P28">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2149,39 +2175,41 @@
         <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="L29" s="2"/>
       <c r="M29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W29" s="20"/>
     </row>
@@ -2195,7 +2223,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3" t="s">
@@ -2204,7 +2232,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>39</v>
@@ -2214,16 +2242,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2238,20 +2266,20 @@
         <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="19"/>
@@ -2259,13 +2287,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2283,38 +2311,40 @@
         <v>25</v>
       </c>
       <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
+      <c r="H32" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="22"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="25" t="s">
-        <v>55</v>
+      <c r="K32" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="18"/>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2322,13 +2352,13 @@
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2336,13 +2366,13 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2350,27 +2380,27 @@
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2378,27 +2408,27 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2406,69 +2436,69 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P42">
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>75</v>
+      </c>
+      <c r="S43">
         <v>2</v>
-      </c>
-      <c r="R43" t="s">
-        <v>86</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O44" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -2476,183 +2506,201 @@
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O45" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="P45">
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O46" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="S46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
       <c r="P47">
-        <f>SUM(P2:P46)</f>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="R47" t="s">
+        <v>130</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O48" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>119</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
         <v>22</v>
       </c>
-      <c r="S47">
+      <c r="S49">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R48" t="s">
+    <row r="50" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P50">
+        <f>SUM(P2:P49)</f>
+        <v>94</v>
+      </c>
+      <c r="R50" t="s">
         <v>51</v>
       </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R49" t="s">
-        <v>56</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R50" t="s">
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R51" t="s">
+        <v>55</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R52" t="s">
         <v>40</v>
-      </c>
-      <c r="S50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R51" t="s">
-        <v>87</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R52" t="s">
-        <v>39</v>
       </c>
       <c r="S52">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="S53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="18:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
+        <v>146</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R57" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R58" t="s">
+        <v>88</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R59" t="s">
         <v>21</v>
       </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R57" t="s">
+      <c r="S59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R60" t="s">
         <v>28</v>
       </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R58" t="s">
+      <c r="S60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R61" t="s">
         <v>47</v>
       </c>
-      <c r="S58">
+      <c r="S61">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R59" t="s">
-        <v>126</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R60" t="s">
-        <v>91</v>
-      </c>
-      <c r="S60">
+    <row r="62" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R62" t="s">
+        <v>125</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R63" t="s">
+        <v>90</v>
+      </c>
+      <c r="S63">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R61" t="s">
+    <row r="64" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="R64" t="s">
         <v>46</v>
       </c>
-      <c r="S61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R62" t="s">
-        <v>82</v>
-      </c>
-      <c r="S62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R63" t="s">
-        <v>33</v>
-      </c>
-      <c r="S63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="R64" t="s">
-        <v>94</v>
-      </c>
       <c r="S64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -2660,23 +2708,23 @@
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -2684,7 +2732,7 @@
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -2692,15 +2740,15 @@
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -2708,7 +2756,7 @@
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -2716,15 +2764,15 @@
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R73" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R74" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -2732,7 +2780,7 @@
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R75" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -2740,15 +2788,15 @@
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R76" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="S76">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R77" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -2756,7 +2804,7 @@
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R78" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -2764,15 +2812,15 @@
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R79" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -2780,7 +2828,7 @@
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R81" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -2788,7 +2836,7 @@
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R82" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -2796,7 +2844,7 @@
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R83" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -2804,7 +2852,7 @@
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R84" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -2812,16 +2860,40 @@
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R85" t="s">
+        <v>114</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R86" t="s">
+        <v>87</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R87" t="s">
+        <v>126</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R88" t="s">
         <v>14</v>
       </c>
-      <c r="S85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S86">
-        <f>SUM(S2:S85)</f>
-        <v>122</v>
+      <c r="S88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <f>SUM(S2:S88)</f>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="150">
   <si>
     <t>Jan</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>AL SANDERS</t>
+  </si>
+  <si>
+    <t>JEFF EDDINGS</t>
+  </si>
+  <si>
+    <t>RAFAEL MUSA</t>
   </si>
 </sst>
 </file>
@@ -930,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1274,8 +1280,12 @@
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="O8" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="P29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
         <v>123</v>
@@ -2358,7 +2368,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2372,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2386,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2400,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2414,10 +2424,10 @@
         <v>2</v>
       </c>
       <c r="R38" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="S38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
@@ -2428,10 +2438,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
@@ -2442,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2453,10 +2463,10 @@
         <v>18</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2470,10 +2480,10 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
@@ -2484,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="S43">
         <v>2</v>
@@ -2498,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
@@ -2512,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -2526,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -2540,10 +2550,10 @@
         <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
@@ -2554,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.35">
@@ -2568,27 +2578,27 @@
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="S49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.35">
       <c r="P50">
         <f>SUM(P2:P49)</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R50" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="S50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -2596,39 +2606,39 @@
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="S52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="S54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -2636,23 +2646,23 @@
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="S58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2660,7 +2670,7 @@
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -2668,39 +2678,39 @@
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="S62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -2708,31 +2718,31 @@
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="S68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -2740,7 +2750,7 @@
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -2748,7 +2758,7 @@
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -2756,7 +2766,7 @@
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -2764,15 +2774,15 @@
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R73" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R74" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -2780,15 +2790,15 @@
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R75" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R76" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -2796,7 +2806,7 @@
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R77" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -2804,7 +2814,7 @@
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R78" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -2812,15 +2822,15 @@
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R79" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="S79">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -2828,15 +2838,15 @@
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S81">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R82" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -2844,7 +2854,7 @@
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R83" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -2852,7 +2862,7 @@
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R84" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -2860,7 +2870,7 @@
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R85" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -2868,7 +2878,7 @@
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R86" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -2876,7 +2886,7 @@
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R87" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -2884,16 +2894,32 @@
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R88" t="s">
+        <v>87</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R89" t="s">
+        <v>126</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R90" t="s">
         <v>14</v>
       </c>
-      <c r="S88">
+      <c r="S90">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S89">
-        <f>SUM(S2:S88)</f>
-        <v>126</v>
+    <row r="91" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S91">
+        <f>SUM(S2:S90)</f>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="150">
   <si>
     <t>Jan</t>
   </si>
@@ -939,7 +939,7 @@
   <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1236,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="16"/>
       <c r="O7" t="s">
@@ -2343,7 +2345,7 @@
         <v>128</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2919,7 +2921,7 @@
     <row r="91" spans="18:19" x14ac:dyDescent="0.35">
       <c r="S91">
         <f>SUM(S2:S90)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="154">
   <si>
     <t>Jan</t>
   </si>
@@ -474,6 +474,18 @@
   </si>
   <si>
     <t>RAFAEL MUSA</t>
+  </si>
+  <si>
+    <t>JESSE GOLDBERG</t>
+  </si>
+  <si>
+    <t>SHMUEL SCHMELL</t>
+  </si>
+  <si>
+    <t>JACKSON NAIR</t>
+  </si>
+  <si>
+    <t>CALE WOLF</t>
   </si>
 </sst>
 </file>
@@ -936,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1005,7 +1017,9 @@
       <c r="F2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>41</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="s">
         <v>147</v>
@@ -1189,7 +1203,9 @@
         <v>67</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1239,7 +1255,9 @@
       <c r="K7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="M7" s="16"/>
       <c r="O7" t="s">
         <v>69</v>
@@ -1280,7 +1298,9 @@
       <c r="I8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="3" t="s">
         <v>149</v>
@@ -1633,7 +1653,9 @@
         <v>105</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="15"/>
+      <c r="M16" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="O16" t="s">
         <v>73</v>
       </c>
@@ -1666,7 +1688,9 @@
       <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H17" s="3" t="s">
         <v>141</v>
       </c>
@@ -1685,13 +1709,13 @@
         <v>97</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
@@ -1735,10 +1759,10 @@
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.35">
@@ -1769,7 +1793,9 @@
         <v>89</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="O19" t="s">
         <v>31</v>
@@ -1778,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -1823,10 +1849,10 @@
         <v>5</v>
       </c>
       <c r="R20" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
@@ -1868,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -1894,7 +1920,9 @@
         <v>98</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1908,10 +1936,10 @@
         <v>118</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -1938,7 +1966,9 @@
       <c r="H23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J23" s="3" t="s">
         <v>120</v>
       </c>
@@ -1952,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -1977,7 +2007,9 @@
       <c r="F24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>114</v>
       </c>
@@ -1997,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2020,7 +2052,9 @@
         <v>115</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>142</v>
       </c>
@@ -2044,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2087,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.35">
@@ -2117,7 +2151,9 @@
       <c r="K27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="L27" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="M27" s="12" t="s">
         <v>18</v>
       </c>
@@ -2128,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
@@ -2173,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2218,10 +2254,10 @@
         <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W29" s="20"/>
     </row>
@@ -2260,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2305,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2342,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -2356,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="R33" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2367,10 +2403,10 @@
         <v>43</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2384,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -2398,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2412,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="R37" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2423,10 +2459,10 @@
         <v>44</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2440,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
@@ -2454,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2468,7 +2504,7 @@
         <v>6</v>
       </c>
       <c r="R41" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2482,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="R42" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
@@ -2496,10 +2532,10 @@
         <v>1</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
@@ -2510,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
@@ -2524,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -2538,10 +2574,10 @@
         <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
@@ -2552,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="R47" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
@@ -2566,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.35">
@@ -2580,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -2589,26 +2625,26 @@
     <row r="50" spans="15:19" x14ac:dyDescent="0.35">
       <c r="P50">
         <f>SUM(P2:P49)</f>
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="R50" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="S50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R51" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="S51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2616,7 +2652,7 @@
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="S53">
         <v>3</v>
@@ -2624,7 +2660,7 @@
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2632,23 +2668,23 @@
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="S56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2656,7 +2692,7 @@
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -2664,7 +2700,7 @@
     </row>
     <row r="59" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2672,7 +2708,7 @@
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="S60">
         <v>1</v>
@@ -2680,23 +2716,23 @@
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -2704,23 +2740,23 @@
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -2728,23 +2764,23 @@
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -2752,23 +2788,23 @@
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="S70">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="S71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -2776,7 +2812,7 @@
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R73" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -2784,7 +2820,7 @@
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R74" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -2792,15 +2828,15 @@
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R75" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R76" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -2808,7 +2844,7 @@
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R77" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -2816,15 +2852,15 @@
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R78" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R79" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -2832,7 +2868,7 @@
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -2840,15 +2876,15 @@
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R81" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="S81">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R82" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -2856,7 +2892,7 @@
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R83" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -2864,7 +2900,7 @@
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R84" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -2872,15 +2908,15 @@
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R85" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R86" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -2888,7 +2924,7 @@
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R87" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -2896,7 +2932,7 @@
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R88" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -2904,7 +2940,7 @@
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R89" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -2912,16 +2948,48 @@
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R90" t="s">
+        <v>113</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R91" t="s">
+        <v>114</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R92" t="s">
+        <v>87</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R93" t="s">
+        <v>126</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R94" t="s">
         <v>14</v>
       </c>
-      <c r="S90">
+      <c r="S94">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S91">
-        <f>SUM(S2:S90)</f>
-        <v>130</v>
+    <row r="95" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <f>SUM(S2:S94)</f>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
   <si>
     <t>Jan</t>
   </si>
@@ -486,6 +486,15 @@
   </si>
   <si>
     <t>CALE WOLF</t>
+  </si>
+  <si>
+    <t>MATT GRITZMACHER</t>
+  </si>
+  <si>
+    <t>MATT MATERA</t>
+  </si>
+  <si>
+    <t>BETH FINEBERG</t>
   </si>
 </sst>
 </file>
@@ -948,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="s">
         <v>36</v>
@@ -1209,7 +1218,9 @@
       <c r="J6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1309,10 +1320,10 @@
         <v>148</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8" t="s">
         <v>144</v>
@@ -1336,7 +1347,9 @@
       <c r="F9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="1" t="s">
         <v>44</v>
@@ -1348,10 +1361,10 @@
       <c r="L9" s="4"/>
       <c r="M9" s="15"/>
       <c r="O9" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
         <v>111</v>
@@ -1393,7 +1406,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="15"/>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1432,14 +1445,16 @@
         <v>119</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="15"/>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="s">
         <v>120</v>
@@ -1474,10 +1489,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M12" s="15"/>
       <c r="O12" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1520,11 +1537,11 @@
         <v>85</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="M13" s="15"/>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -1555,7 +1572,9 @@
       <c r="F14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>109</v>
       </c>
@@ -1565,7 +1584,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1610,7 +1629,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1657,7 +1676,7 @@
         <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1706,10 +1725,10 @@
         <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
         <v>153</v>
@@ -1753,10 +1772,10 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
         <v>32</v>
@@ -1798,10 +1817,10 @@
       </c>
       <c r="M19" s="15"/>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="s">
         <v>13</v>
@@ -1843,10 +1862,10 @@
         <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>38</v>
@@ -1874,7 +1893,9 @@
       <c r="F21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>46</v>
       </c>
@@ -1888,10 +1909,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s">
         <v>92</v>
@@ -1933,10 +1954,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="15"/>
       <c r="O22" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
         <v>76</v>
@@ -1976,10 +1997,10 @@
       <c r="L23" s="4"/>
       <c r="M23" s="15"/>
       <c r="O23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="s">
         <v>60</v>
@@ -2023,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -2072,10 +2093,10 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="s">
         <v>19</v>
@@ -2102,7 +2123,9 @@
         <v>29</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I26" s="2"/>
       <c r="J26" s="1" t="s">
         <v>12</v>
@@ -2115,10 +2138,10 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" t="s">
         <v>34</v>
@@ -2158,10 +2181,10 @@
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
@@ -2203,10 +2226,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="s">
         <v>135</v>
@@ -2248,10 +2271,10 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="P29">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R29" t="s">
         <v>30</v>
@@ -2290,10 +2313,10 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="R30" t="s">
         <v>123</v>
@@ -2329,13 +2352,15 @@
       <c r="J31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="17" t="s">
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2372,7 +2397,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="18"/>
       <c r="O32" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2386,7 +2411,7 @@
     </row>
     <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="P33">
         <v>3</v>
@@ -2400,10 +2425,10 @@
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R34" t="s">
         <v>152</v>
@@ -2414,10 +2439,10 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R35" t="s">
         <v>140</v>
@@ -2428,7 +2453,7 @@
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2442,7 +2467,7 @@
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2456,10 +2481,10 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="s">
         <v>150</v>
@@ -2470,10 +2495,10 @@
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R39" t="s">
         <v>137</v>
@@ -2484,7 +2509,7 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -2498,10 +2523,10 @@
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R41" t="s">
         <v>66</v>
@@ -2512,10 +2537,10 @@
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R42" t="s">
         <v>17</v>
@@ -2526,10 +2551,10 @@
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="s">
         <v>63</v>
@@ -2540,10 +2565,10 @@
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O44" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R44" t="s">
         <v>129</v>
@@ -2554,10 +2579,10 @@
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O45" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R45" t="s">
         <v>80</v>
@@ -2568,10 +2593,10 @@
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O46" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" t="s">
         <v>45</v>
@@ -2582,10 +2607,10 @@
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O47" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" t="s">
         <v>75</v>
@@ -2596,10 +2621,10 @@
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O48" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R48" t="s">
         <v>89</v>
@@ -2610,7 +2635,7 @@
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O49" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2623,28 +2648,34 @@
       </c>
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
       <c r="P50">
-        <f>SUM(P2:P49)</f>
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P51">
+        <f>SUM(P2:P50)</f>
+        <v>112</v>
+      </c>
       <c r="R51" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="S51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R52" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -2652,15 +2683,15 @@
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R53" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="S53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R54" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2668,23 +2699,23 @@
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="S56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2692,7 +2723,7 @@
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S58">
         <v>3</v>
@@ -2700,7 +2731,7 @@
     </row>
     <row r="59" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="S59">
         <v>1</v>
@@ -2708,23 +2739,23 @@
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="S60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -2732,15 +2763,15 @@
     </row>
     <row r="63" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -2748,15 +2779,15 @@
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -2764,7 +2795,7 @@
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="S67">
         <v>2</v>
@@ -2772,7 +2803,7 @@
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -2780,47 +2811,47 @@
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="S69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="S70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R73" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="S73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R74" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -2828,7 +2859,7 @@
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R75" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -2836,7 +2867,7 @@
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R76" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -2844,7 +2875,7 @@
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R77" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -2852,15 +2883,15 @@
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R78" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R79" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="S79">
         <v>1</v>
@@ -2868,15 +2899,15 @@
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R81" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -2884,7 +2915,7 @@
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R82" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -2892,7 +2923,7 @@
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R83" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -2900,7 +2931,7 @@
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R84" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -2908,15 +2939,15 @@
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R85" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="S85">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R86" t="s">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -2924,15 +2955,15 @@
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S87">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R88" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -2940,7 +2971,7 @@
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R89" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -2948,7 +2979,7 @@
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R90" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -2956,7 +2987,7 @@
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R91" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -2964,7 +2995,7 @@
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R92" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -2972,7 +3003,7 @@
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R93" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -2980,16 +3011,32 @@
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R94" t="s">
+        <v>87</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R95" t="s">
+        <v>126</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R96" t="s">
         <v>14</v>
       </c>
-      <c r="S94">
+      <c r="S96">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="18:19" x14ac:dyDescent="0.35">
-      <c r="S95">
-        <f>SUM(S2:S94)</f>
-        <v>134</v>
+    <row r="97" spans="19:19" x14ac:dyDescent="0.35">
+      <c r="S97">
+        <f>SUM(S2:S96)</f>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="169">
   <si>
     <t>Jan</t>
   </si>
@@ -495,6 +495,42 @@
   </si>
   <si>
     <t>BETH FINEBERG</t>
+  </si>
+  <si>
+    <t>BEN ZIMMER</t>
+  </si>
+  <si>
+    <t>LEONARD WILLIAMS</t>
+  </si>
+  <si>
+    <t>DAVID HARRIS</t>
+  </si>
+  <si>
+    <t>LAURA BRAUNSTEIN</t>
+  </si>
+  <si>
+    <t>REBECCA MICHELSON</t>
+  </si>
+  <si>
+    <t>DREW SCHMENNER</t>
+  </si>
+  <si>
+    <t>DAVID WILLIAMS</t>
+  </si>
+  <si>
+    <t>BRIAN GUBIN</t>
+  </si>
+  <si>
+    <t>PRESTON KAPLAN</t>
+  </si>
+  <si>
+    <t>PAUL STANSIFER</t>
+  </si>
+  <si>
+    <t>STEVE JOHNSON</t>
+  </si>
+  <si>
+    <t>MICHAEL DUKE</t>
   </si>
 </sst>
 </file>
@@ -957,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,7 +1348,9 @@
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>149</v>
       </c>
@@ -1486,7 +1524,9 @@
       <c r="H12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
@@ -1500,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1547,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1578,7 +1618,9 @@
       <c r="H14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1590,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1635,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1682,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
@@ -1731,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -1760,7 +1802,9 @@
       <c r="H18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>83</v>
       </c>
@@ -1778,7 +1822,7 @@
         <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -1823,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
@@ -1865,13 +1909,13 @@
         <v>31</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.35">
@@ -1915,10 +1959,10 @@
         <v>5</v>
       </c>
       <c r="R21" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
@@ -1960,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2003,10 +2047,10 @@
         <v>2</v>
       </c>
       <c r="R23" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.35">
@@ -2038,7 +2082,9 @@
       <c r="J24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="17" t="s">
         <v>22</v>
@@ -2050,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -2088,7 +2134,9 @@
       <c r="K25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="M25" s="17" t="s">
         <v>26</v>
       </c>
@@ -2099,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="R25" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2122,7 +2170,9 @@
       <c r="F26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2167,7 +2217,9 @@
       <c r="F27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2187,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.35">
@@ -2215,7 +2267,9 @@
       <c r="G28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I28" s="3" t="s">
         <v>61</v>
       </c>
@@ -2232,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2266,18 +2320,20 @@
       <c r="K29" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="M29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -2296,7 +2352,9 @@
       <c r="E30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>33</v>
       </c>
@@ -2313,16 +2371,16 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="P30">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2360,13 +2418,13 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R31" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -2397,27 +2455,27 @@
       <c r="L32" s="21"/>
       <c r="M32" s="18"/>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="P32">
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="S32">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -2425,13 +2483,13 @@
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="P34">
         <v>3</v>
       </c>
       <c r="R34" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -2439,27 +2497,27 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P35">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35">
         <v>2</v>
-      </c>
-      <c r="R35" t="s">
-        <v>140</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -2467,13 +2525,13 @@
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="S37">
         <v>1</v>
@@ -2481,13 +2539,13 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="P38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -2495,13 +2553,13 @@
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -2509,13 +2567,13 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="P40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="S40">
         <v>1</v>
@@ -2523,13 +2581,13 @@
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R41" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -2537,27 +2595,27 @@
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="P42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="R43" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="S43">
         <v>1</v>
@@ -2565,13 +2623,13 @@
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O44" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="P44">
         <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -2579,13 +2637,13 @@
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O45" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R45" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -2593,27 +2651,27 @@
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O46" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O47" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="S47">
         <v>2</v>
@@ -2621,13 +2679,13 @@
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O48" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R48" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -2635,13 +2693,13 @@
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O49" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="P49">
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -2649,49 +2707,67 @@
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+      <c r="R50" t="s">
+        <v>80</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s">
+        <v>158</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O52" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O53" t="s">
         <v>53</v>
       </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="R50" t="s">
-        <v>154</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="P51">
-        <f>SUM(P2:P50)</f>
-        <v>112</v>
-      </c>
-      <c r="R51" t="s">
-        <v>155</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="15:19" x14ac:dyDescent="0.35">
-      <c r="R52" t="s">
-        <v>48</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P53">
+        <v>1</v>
+      </c>
       <c r="R53" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="S53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P54">
+        <f>SUM(P2:P53)</f>
+        <v>119</v>
+      </c>
       <c r="R54" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -2699,15 +2775,15 @@
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R55" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="S55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R56" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -2715,7 +2791,7 @@
     </row>
     <row r="57" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R57" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -2723,39 +2799,39 @@
     </row>
     <row r="58" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R58" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R59" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="S59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R60" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="S60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R61" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R62" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -2763,23 +2839,23 @@
     </row>
     <row r="63" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R63" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="15:19" x14ac:dyDescent="0.35">
       <c r="R64" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="S64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R65" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -2787,15 +2863,15 @@
     </row>
     <row r="66" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R66" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R67" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="S67">
         <v>2</v>
@@ -2803,7 +2879,7 @@
     </row>
     <row r="68" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R68" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -2811,15 +2887,15 @@
     </row>
     <row r="69" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R69" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R70" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="S70">
         <v>1</v>
@@ -2827,7 +2903,7 @@
     </row>
     <row r="71" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R71" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="S71">
         <v>1</v>
@@ -2835,15 +2911,15 @@
     </row>
     <row r="72" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R72" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S72">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R73" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="S73">
         <v>2</v>
@@ -2851,7 +2927,7 @@
     </row>
     <row r="74" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R74" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -2859,15 +2935,15 @@
     </row>
     <row r="75" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R75" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R76" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -2875,7 +2951,7 @@
     </row>
     <row r="77" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R77" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -2883,31 +2959,31 @@
     </row>
     <row r="78" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R78" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="S78">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R81" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="S81">
         <v>1</v>
@@ -2915,7 +2991,7 @@
     </row>
     <row r="82" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R82" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -2923,7 +2999,7 @@
     </row>
     <row r="83" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R83" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="S83">
         <v>1</v>
@@ -2931,7 +3007,7 @@
     </row>
     <row r="84" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R84" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -2939,7 +3015,7 @@
     </row>
     <row r="85" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R85" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -2947,7 +3023,7 @@
     </row>
     <row r="86" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S86">
         <v>1</v>
@@ -2955,23 +3031,23 @@
     </row>
     <row r="87" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R87" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="S87">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R88" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="S88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R89" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="S89">
         <v>1</v>
@@ -2979,7 +3055,7 @@
     </row>
     <row r="90" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R90" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -2987,7 +3063,7 @@
     </row>
     <row r="91" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R91" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -2995,7 +3071,7 @@
     </row>
     <row r="92" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R92" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -3003,7 +3079,7 @@
     </row>
     <row r="93" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R93" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -3011,7 +3087,7 @@
     </row>
     <row r="94" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R94" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -3019,24 +3095,96 @@
     </row>
     <row r="95" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R95" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="S95">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R96" t="s">
+        <v>167</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R97" t="s">
+        <v>35</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R98" t="s">
+        <v>24</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R99" t="s">
+        <v>61</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R100" t="s">
+        <v>57</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R101" t="s">
+        <v>113</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R102" t="s">
+        <v>114</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R103" t="s">
+        <v>87</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R104" t="s">
+        <v>126</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R105" t="s">
         <v>14</v>
       </c>
-      <c r="S96">
+      <c r="S105">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.35">
-      <c r="S97">
-        <f>SUM(S2:S96)</f>
-        <v>136</v>
+    <row r="106" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <f>SUM(S2:S105)</f>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="171">
   <si>
     <t>Jan</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>MICHAEL DUKE</t>
+  </si>
+  <si>
+    <t>MOLLIE &amp; SUSAN</t>
+  </si>
+  <si>
+    <t>DREW &amp; SAMANTHA</t>
   </si>
 </sst>
 </file>
@@ -995,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,7 +1074,9 @@
       <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
         <v>99</v>
@@ -1210,7 +1218,9 @@
         <v>18</v>
       </c>
       <c r="K5" s="4"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="M5" s="12" t="s">
         <v>122</v>
       </c>
@@ -1486,7 +1496,9 @@
       <c r="K11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="M11" s="15"/>
       <c r="O11" t="s">
         <v>122</v>
@@ -1622,11 +1634,15 @@
         <v>163</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1671,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -1718,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1767,7 +1783,7 @@
         <v>139</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1816,10 +1832,10 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18" t="s">
         <v>25</v>
@@ -1861,10 +1877,10 @@
       </c>
       <c r="M19" s="15"/>
       <c r="O19" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s">
         <v>153</v>
@@ -1906,10 +1922,10 @@
         <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R20" t="s">
         <v>32</v>
@@ -1953,10 +1969,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="s">
         <v>13</v>
@@ -1998,10 +2014,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="15"/>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s">
         <v>159</v>
@@ -2041,10 +2057,10 @@
       <c r="L23" s="4"/>
       <c r="M23" s="15"/>
       <c r="O23" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" t="s">
         <v>38</v>
@@ -2090,10 +2106,10 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
         <v>92</v>
@@ -2141,10 +2157,10 @@
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" t="s">
         <v>76</v>
@@ -2188,10 +2204,10 @@
         <v>16</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" t="s">
         <v>163</v>
@@ -2221,8 +2237,12 @@
         <v>158</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="K27" s="3" t="s">
         <v>113</v>
       </c>
@@ -2233,10 +2253,10 @@
         <v>18</v>
       </c>
       <c r="O27" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R27" t="s">
         <v>60</v>
@@ -2280,10 +2300,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="16"/>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
         <v>62</v>
@@ -2327,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="O29" t="s">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2371,10 +2391,10 @@
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="s">
         <v>19</v>
@@ -2418,10 +2438,10 @@
         <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="P31">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R31" t="s">
         <v>34</v>
@@ -2455,10 +2475,10 @@
       <c r="L32" s="21"/>
       <c r="M32" s="18"/>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="R32" t="s">
         <v>23</v>
@@ -2469,7 +2489,7 @@
     </row>
     <row r="33" spans="15:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="O33" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2483,10 +2503,10 @@
     </row>
     <row r="34" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O34" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R34" t="s">
         <v>30</v>
@@ -2497,7 +2517,7 @@
     </row>
     <row r="35" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O35" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="P35">
         <v>3</v>
@@ -2511,10 +2531,10 @@
     </row>
     <row r="36" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O36" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R36" t="s">
         <v>136</v>
@@ -2525,10 +2545,10 @@
     </row>
     <row r="37" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O37" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R37" t="s">
         <v>70</v>
@@ -2539,10 +2559,10 @@
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O38" t="s">
-        <v>145</v>
+        <v>43</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R38" t="s">
         <v>128</v>
@@ -2553,10 +2573,7 @@
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O39" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="R39" t="s">
         <v>152</v>
@@ -2567,7 +2584,7 @@
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O40" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -2581,10 +2598,10 @@
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O41" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41" t="s">
         <v>148</v>
@@ -2595,7 +2612,7 @@
     </row>
     <row r="42" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O42" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -2609,10 +2626,10 @@
     </row>
     <row r="43" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O43" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R43" t="s">
         <v>150</v>
@@ -2623,7 +2640,7 @@
     </row>
     <row r="44" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O44" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -2637,10 +2654,10 @@
     </row>
     <row r="45" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O45" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="P45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R45" t="s">
         <v>94</v>
@@ -2651,10 +2668,10 @@
     </row>
     <row r="46" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O46" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R46" t="s">
         <v>66</v>
@@ -2665,10 +2682,10 @@
     </row>
     <row r="47" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O47" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R47" t="s">
         <v>17</v>
@@ -2679,7 +2696,7 @@
     </row>
     <row r="48" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O48" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -2693,7 +2710,7 @@
     </row>
     <row r="49" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O49" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -2707,7 +2724,7 @@
     </row>
     <row r="50" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O50" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -2721,10 +2738,10 @@
     </row>
     <row r="51" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O51" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R51" t="s">
         <v>158</v>
@@ -2735,10 +2752,10 @@
     </row>
     <row r="52" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O52" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R52" t="s">
         <v>45</v>
@@ -2749,10 +2766,10 @@
     </row>
     <row r="53" spans="15:19" x14ac:dyDescent="0.35">
       <c r="O53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="s">
         <v>75</v>
@@ -2762,9 +2779,11 @@
       </c>
     </row>
     <row r="54" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O54" t="s">
+        <v>108</v>
+      </c>
       <c r="P54">
-        <f>SUM(P2:P53)</f>
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="R54" t="s">
         <v>89</v>
@@ -2774,6 +2793,12 @@
       </c>
     </row>
     <row r="55" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
       <c r="R55" t="s">
         <v>85</v>
       </c>
@@ -2782,6 +2807,10 @@
       </c>
     </row>
     <row r="56" spans="15:19" x14ac:dyDescent="0.35">
+      <c r="P56">
+        <f>SUM(P2:P55)</f>
+        <v>119</v>
+      </c>
       <c r="R56" t="s">
         <v>154</v>
       </c>

--- a/constructors.xlsx
+++ b/constructors.xlsx
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
